--- a/singleVis/plot/plot_results/ablation_smoothness_ppr.xlsx
+++ b/singleVis/plot/plot_results/ablation_smoothness_ppr.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0.995</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0.991</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>0.985</v>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>0.979</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0.963</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>0.956</v>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0.866</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0.86</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>0.921</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>0.911</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
         <v>0.946</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
         <v>0.9370000000000001</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0.83</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0.829</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
         <v>0.886</v>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>0.88</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
         <v>0.919</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
         <v>0.906</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0.254</v>
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0.257</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
         <v>0.426</v>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
         <v>0.423</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
         <v>0.837</v>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
         <v>0.823</v>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>0.594</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
         <v>0.59</v>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
         <v>0.787</v>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
         <v>0.792</v>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
         <v>0.839</v>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G31" t="n">
         <v>0.834</v>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G32" t="n">
         <v>0.9330000000000001</v>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G33" t="n">
         <v>0.927</v>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>0.538</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>0.539</v>
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G36" t="n">
         <v>0.597</v>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
         <v>0.6</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n">
         <v>0.7</v>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G39" t="n">
         <v>0.702</v>
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G40" t="n">
         <v>0.917</v>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G41" t="n">
         <v>0.914</v>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>0.327</v>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>0.317</v>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G44" t="n">
         <v>0.436</v>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G45" t="n">
         <v>0.44</v>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G46" t="n">
         <v>0.778</v>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G47" t="n">
         <v>0.778</v>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G48" t="n">
         <v>0.883</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G49" t="n">
         <v>0.871</v>
